--- a/biology/Zoologie/Grand_martin/Grand_martin.xlsx
+++ b/biology/Zoologie/Grand_martin/Grand_martin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acridotheres grandis
-Le Grand Martin (Acridotheres grandis) est une espèce de passereau de la famille des Sturnidae originaire d'Asie. Il est aussi appelé Grand Mainate et Mainate à ventre blanc[2].
+Le Grand Martin (Acridotheres grandis) est une espèce de passereau de la famille des Sturnidae originaire d'Asie. Il est aussi appelé Grand Mainate et Mainate à ventre blanc.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce passereau vit au nord-est de l'Inde (sud d'Assam, Nagaland et Manipur[3]), au sud-ouest de la Chine (ouest et sud du Yunnan et sud-ouest du Guangxi[3]), au sud-est du Bangladesh, au Cambodge, en Thaïlande, au Viêt Nam, à l'est de la Birmanie et au Laos[2]. 
-Il a aussi été introduit en Malaisie, à Singapour et en Indonésie[4].
-Il aime les prairies, les pâturages et les jardins[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce passereau vit au nord-est de l'Inde (sud d'Assam, Nagaland et Manipur), au sud-ouest de la Chine (ouest et sud du Yunnan et sud-ouest du Guangxi), au sud-est du Bangladesh, au Cambodge, en Thaïlande, au Viêt Nam, à l'est de la Birmanie et au Laos. 
+Il a aussi été introduit en Malaisie, à Singapour et en Indonésie.
+Il aime les prairies, les pâturages et les jardins.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le grand mainate est noir avec des plumes blanches sous la queue et quelques plumes blanches sur les ailes. Son bec et ses pattes sont jaunes. Ses plumes noires forment une crête caractéristique sur sa tête près du bec. 
